--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA345E16-794F-4B81-B606-2F708A143F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA23F5-B451-4C09-866A-9D03AD0E2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="136">
   <si>
     <r>
       <t>System Name</t>
@@ -517,6 +517,40 @@
   </si>
   <si>
     <t>failed to save</t>
+  </si>
+  <si>
+    <t>advise of acceptance-&gt;20 &amp; 21 fields</t>
+  </si>
+  <si>
+    <t>the values of these two fields should be in vice versa,
+ because 20 refers to sender reference and 21 refers to 
+receiver reference, and also in swift message should be in vice versa.</t>
+  </si>
+  <si>
+    <t>advise of acceptance-&gt;beneficiary bank field</t>
+  </si>
+  <si>
+    <t>this field is not needed in this event, should be removed.</t>
+  </si>
+  <si>
+    <t>the label 'Applicant Bank' should be 'Receiver Bank', and 'Applicant Bank Branch' should be 'Receiver Bank Branch'.</t>
+  </si>
+  <si>
+    <t>advise of acceptance-&gt; Receiver Bank Details secion</t>
+  </si>
+  <si>
+    <t>in payment event, it is supposed to debit the customer account by the value that filled manually and debit the remaining amount from the faciltiy account, with taking into your consideration the case in which we have syp facility account and pay foreign currency Bill so we want to take the equavalent of paid amount from the facility account.</t>
+  </si>
+  <si>
+    <t>Import Bill Primary Details-&gt;creation mode -&gt;finance 
+Payment Type-&gt;select facilty account.</t>
+  </si>
+  <si>
+    <t>when select the facility account we want two fields to show the limit and utilized amount of this facility account, the same as in local guarantee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paying finance Bill(this customer has a facility account)
+</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2550,6 +2584,106 @@
         <v>45369</v>
       </c>
     </row>
+    <row r="71" spans="1:6" ht="60">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F73" s="6">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F74" s="6">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="90">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F75" s="6">
+        <v>45371</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA23F5-B451-4C09-866A-9D03AD0E2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6DBE4F-9805-4DC7-90C6-98750D2E7B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$82</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
   <si>
     <r>
       <t>System Name</t>
@@ -83,12 +86,6 @@
   </si>
   <si>
     <t>pending</t>
-  </si>
-  <si>
-    <t>bill of entry enquiry</t>
-  </si>
-  <si>
-    <t>not working(could not complete it)</t>
   </si>
   <si>
     <t xml:space="preserve">MT410 ack </t>
@@ -286,9 +283,6 @@
     <t>the OUP charges need configuration.</t>
   </si>
   <si>
-    <t>advice of acceptance MT412.</t>
-  </si>
-  <si>
     <t>advice of payment, with MT202 option to pay.</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
   </si>
   <si>
     <t>all disabled fields in 'Bill Lodgment details' section to be in gray color.</t>
-  </si>
-  <si>
-    <t>beneficiary bank details should be mandatory.</t>
   </si>
   <si>
     <t>acknowledgment MT410(normal case)</t>
@@ -427,9 +418,6 @@
     <t>unknown options</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>you made them optional, so will check it with the concerned staff</t>
   </si>
   <si>
@@ -474,19 +462,10 @@
     <t>in purpose code field, just we need a single option 'goods value'(add it as another option).</t>
   </si>
   <si>
-    <t>primary details event, 'beneficiary bank' fields.</t>
-  </si>
-  <si>
     <t>primary details event-&gt; Document Details section-&gt;number of set field</t>
   </si>
   <si>
     <t>the label of this field should be 'mail number'</t>
-  </si>
-  <si>
-    <t>these fields are related to specific BIC code of bank, so after we select the BIC code of this bank, other fields should be disabled</t>
-  </si>
-  <si>
-    <t>payment event -&gt;fields 20 &amp; 21</t>
   </si>
   <si>
     <t>the values of these two fields should be in vice versa, because 20 refers to sender reference and 21 refers to receiver reference, and also in swift message should be in vice versa.</t>
@@ -551,6 +530,147 @@
   <si>
     <t xml:space="preserve">paying finance Bill(this customer has a facility account)
 </t>
+  </si>
+  <si>
+    <t>the receiver is not reflected to the swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you are considering the sender always is the ordering bank, but if you look at the swift, we see that the ordering bank is optional and it is used only to specifies the ordering financial institution when other than the Sender of the message.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">primary details event, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with the acceptance type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, for the option 'From B/L Date' and 'After B/L Date' in From Event field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the value of due date field should be calculated starting from the 'bill of lading date' field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and affected by usanse days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>payment event , with MT202 type, fields 20 &amp; 21</t>
+  </si>
+  <si>
+    <t>payment event , with MT400 type, fields 20 &amp; 21</t>
+  </si>
+  <si>
+    <t>in swift message the values of these two fields are not reflected correctly(in vice versa).</t>
+  </si>
+  <si>
+    <t>MT 416 Advice of Non-Payment/Non-Acceptance -&gt;71F:Charges Currency / Amount field</t>
+  </si>
+  <si>
+    <t>this field is not related to '32A: Face Amount of Documents' section and should not be putted under it(we expect to be in separte section).</t>
+  </si>
+  <si>
+    <t>MT 416 Advice of Non-Payment/Non-Acceptance -&gt; Reference Details section</t>
+  </si>
+  <si>
+    <t>(20) Sender's TRN No' &amp; '(21) Related Reference No'are in vice versa(reverse the values of them), and also should be reflected correctly to the swift</t>
+  </si>
+  <si>
+    <t>Import Bill Primary Details-&gt; creation mode -&gt; Mode of transport field</t>
+  </si>
+  <si>
+    <t>the hint of this field is wrong (the number of selected options that appear as hint)</t>
+  </si>
+  <si>
+    <t>advice of payment event -&gt; creation mode -&gt;Custom Certificate Details section.</t>
+  </si>
+  <si>
+    <t>Custom Certificate Number field is not wanted</t>
+  </si>
+  <si>
+    <t>when we take custom certificate charges
+ in payment , we do not have the custom certificate at all, the question now how can I know the custom certificate number?? So this field should be removed.</t>
+  </si>
+  <si>
+    <t>Refund of Custom Security Amount event -&gt;creation mode</t>
+  </si>
+  <si>
+    <t>the entries of voucher is not correct.</t>
+  </si>
+  <si>
+    <t>advise of acceptance</t>
+  </si>
+  <si>
+    <t>there a missed scenario about the case of reserving margin for acceptance bill, and this scenario mentioed in separte file sent by mail in this date.</t>
+  </si>
+  <si>
+    <t>field (58a) Beneficiary Bank, when we leave it blank, in this case no need to be reflected to the swift message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MT400 Advice Of Payment -&gt; creation mode -&gt;MT202 or MT400 msg type</t>
+  </si>
+  <si>
+    <t>advise of acceptance event -&gt; creation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> field '72. Sender to Receiver Information', when we leave it 
+blank, in this case no need to be reflected to the swift message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fail</t>
+  </si>
+  <si>
+    <t>Import Bill Primary Details-&gt; creation mode -&gt; Document Details  section -&gt;number of set field</t>
+  </si>
+  <si>
+    <t>this field is not wanted, should be removed.</t>
+  </si>
+  <si>
+    <t>bank team refused this field, and asked to be removed.</t>
+  </si>
+  <si>
+    <t>this field is meaningless in import bills.</t>
+  </si>
+  <si>
+    <t>Import Bill Primary Details-&gt; authorization mode(reviwer).</t>
+  </si>
+  <si>
+    <t>approve button should be named 'review'.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +681,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +728,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +788,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -821,7 +942,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1118,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,22 +1264,22 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7">
@@ -1163,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1175,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -1189,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10">
         <v>45326</v>
@@ -1209,13 +1333,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="10">
         <v>45326</v>
@@ -1232,19 +1356,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="11">
         <v>45326</v>
       </c>
       <c r="F6" s="6">
-        <v>45368</v>
+        <v>45396</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45396</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1254,14 +1381,20 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>10</v>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10">
-        <v>45326</v>
+        <v>45327</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45369</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1272,19 +1405,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="10">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="F8" s="6">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="G8" s="6">
-        <v>45369</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1292,13 +1425,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="10">
         <v>45328</v>
@@ -1309,50 +1442,53 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="10">
         <v>45328</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>45328</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="45">
+      <c r="F11" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="11">
-        <v>45328</v>
+      <c r="E12" s="10">
+        <v>45333</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1360,39 +1496,45 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10">
-        <v>45333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>45336</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45368</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11">
         <v>45336</v>
       </c>
       <c r="F14" s="6">
-        <v>45368</v>
+        <v>45349</v>
       </c>
       <c r="G14" s="6">
-        <v>45368</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -1400,53 +1542,56 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E15" s="11">
-        <v>45336</v>
+        <v>45340</v>
       </c>
       <c r="F15" s="6">
-        <v>45349</v>
+        <v>45382</v>
       </c>
       <c r="G15" s="6">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56.25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45340</v>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10">
+        <v>45347</v>
       </c>
       <c r="F16" s="6">
-        <v>45340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="56.25" customHeight="1">
+        <v>45347</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
+      <c r="C17" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1457,48 +1602,51 @@
       <c r="F17" s="6">
         <v>45347</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" customHeight="1">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="11">
         <v>45347</v>
       </c>
       <c r="F18" s="6">
         <v>45347</v>
       </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45347</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45349</v>
       </c>
       <c r="F19" s="6">
-        <v>45347</v>
+        <v>45376</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45376</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1506,19 +1654,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="F20" s="6">
-        <v>45349</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1528,8 +1676,8 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>10</v>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1538,27 +1686,33 @@
         <v>45354</v>
       </c>
       <c r="F21" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45368</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
       </c>
       <c r="E22" s="10">
         <v>45354</v>
       </c>
       <c r="F22" s="6">
-        <v>45354</v>
+        <v>45368</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45368</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45">
@@ -1566,33 +1720,36 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="E23" s="10">
         <v>45354</v>
       </c>
       <c r="F23" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
+        <v>45369</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="195">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="10">
         <v>45354</v>
@@ -1604,15 +1761,15 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>48</v>
@@ -1621,21 +1778,21 @@
         <v>45354</v>
       </c>
       <c r="F25" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="G25" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="195">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
@@ -1655,13 +1812,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" s="10">
         <v>45354</v>
@@ -1677,31 +1834,34 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
+      <c r="B28" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="E28" s="10">
         <v>45354</v>
       </c>
       <c r="F28" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>45368</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>54</v>
@@ -1710,53 +1870,56 @@
         <v>45354</v>
       </c>
       <c r="F29" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30">
+        <v>45369</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E30" s="10">
         <v>45354</v>
       </c>
       <c r="F30" s="6">
-        <v>45368</v>
+        <v>45376</v>
       </c>
       <c r="G30" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E31" s="10">
         <v>45354</v>
       </c>
       <c r="F31" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="G31" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1764,13 +1927,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E32" s="10">
         <v>45354</v>
@@ -1778,6 +1941,9 @@
       <c r="F32" s="6">
         <v>45368</v>
       </c>
+      <c r="G32" s="6">
+        <v>45368</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
@@ -1786,63 +1952,63 @@
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>32</v>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="10">
         <v>45354</v>
       </c>
       <c r="F33" s="6">
-        <v>45368</v>
-      </c>
-      <c r="G33" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="10">
         <v>45354</v>
       </c>
       <c r="F34" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G34" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E35" s="10">
         <v>45354</v>
       </c>
       <c r="F35" s="6">
-        <v>45362</v>
+        <v>45369</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45369</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1850,19 +2016,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E36" s="10">
         <v>45354</v>
       </c>
       <c r="F36" s="6">
-        <v>45362</v>
+        <v>45354</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30">
@@ -1870,22 +2036,22 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E37" s="10">
         <v>45354</v>
       </c>
       <c r="F37" s="6">
-        <v>45369</v>
+        <v>45377</v>
       </c>
       <c r="G37" s="6">
-        <v>45369</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30">
@@ -1893,125 +2059,137 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E38" s="10">
         <v>45354</v>
       </c>
       <c r="F38" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="G38" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E39" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F39" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E40" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F40" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30">
+        <v>45383</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
       <c r="A41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E41" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F41" s="6">
-        <v>45368</v>
+        <v>45382</v>
       </c>
       <c r="G41" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="10">
         <v>45356</v>
       </c>
       <c r="F42" s="6">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>45368</v>
+      </c>
+      <c r="H42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E43" s="10">
         <v>45356</v>
       </c>
       <c r="F43" s="6">
-        <v>45356</v>
+        <v>45368</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45368</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="45">
@@ -2019,19 +2197,22 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E44" s="10">
         <v>45356</v>
       </c>
       <c r="F44" s="6">
-        <v>45356</v>
+        <v>45376</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45376</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2039,13 +2220,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E45" s="10">
         <v>45356</v>
@@ -2057,18 +2238,18 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E46" s="10">
         <v>45356</v>
@@ -2079,22 +2260,19 @@
       <c r="G46" s="6">
         <v>45368</v>
       </c>
-      <c r="H46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="45">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E47" s="10">
         <v>45356</v>
@@ -2102,68 +2280,68 @@
       <c r="F47" s="6">
         <v>45368</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="10">
         <v>45356</v>
       </c>
       <c r="F48" s="6">
-        <v>45368</v>
-      </c>
-      <c r="G48" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E49" s="10">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="F49" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G49" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="10">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="F50" s="6">
         <v>45368</v>
@@ -2172,104 +2350,107 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:8" ht="30">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="10">
-        <v>45356</v>
+        <v>45326</v>
       </c>
       <c r="F51" s="6">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30">
+        <v>45365</v>
+      </c>
+      <c r="G51" s="6">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>69</v>
+      <c r="B52" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E52" s="10">
-        <v>45357</v>
+        <v>45368</v>
       </c>
       <c r="F52" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="G52" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E53" s="10">
-        <v>45357</v>
+        <v>45368</v>
       </c>
       <c r="F53" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G53" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E54" s="10">
-        <v>45326</v>
+        <v>45368</v>
       </c>
       <c r="F54" s="6">
-        <v>45365</v>
+        <v>45376</v>
       </c>
       <c r="G54" s="6">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>10</v>
+      <c r="C55" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>99</v>
@@ -2278,120 +2459,138 @@
         <v>45368</v>
       </c>
       <c r="F55" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
+        <v>45375</v>
+      </c>
+      <c r="G55" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E56" s="10">
         <v>45368</v>
       </c>
       <c r="F56" s="6">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="G56" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>10</v>
+      <c r="C57" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E57" s="10">
         <v>45368</v>
       </c>
       <c r="F57" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>45383</v>
+      </c>
+      <c r="G57" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F58" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30">
+        <v>45383</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E59" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F59" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30">
+        <v>45376</v>
+      </c>
+      <c r="G59" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F60" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>45383</v>
+      </c>
+      <c r="G60" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="135">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -2401,287 +2600,515 @@
         <v>45369</v>
       </c>
       <c r="F61" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="60">
+        <v>45383</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E62" s="10">
         <v>45369</v>
       </c>
       <c r="F62" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45">
+        <v>45375</v>
+      </c>
+      <c r="G62" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E63" s="10">
         <v>45369</v>
       </c>
       <c r="F63" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45">
+        <v>45383</v>
+      </c>
+      <c r="G63" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E64" s="10">
         <v>45369</v>
       </c>
       <c r="F64" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>45376</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E65" s="10">
         <v>45369</v>
       </c>
       <c r="F65" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45">
+        <v>45376</v>
+      </c>
+      <c r="G65" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E66" s="10">
         <v>45369</v>
       </c>
       <c r="F66" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>10</v>
+        <v>116</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E67" s="10">
         <v>45369</v>
       </c>
       <c r="F67" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>45377</v>
+      </c>
+      <c r="G67" s="6">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="60">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E68" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F68" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30">
+        <v>45376</v>
+      </c>
+      <c r="G68" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>10</v>
+      <c r="C69" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E69" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F69" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>45375</v>
+      </c>
+      <c r="G69" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E70" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F70" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="60">
+        <v>45375</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E71" s="10">
         <v>45371</v>
       </c>
       <c r="F71" s="6">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="90">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>10</v>
+      <c r="B72" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E72" s="10">
         <v>45371</v>
       </c>
       <c r="F72" s="6">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="45">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="E73" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F73" s="6">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45">
+        <v>45383</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F74" s="6">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="90">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="10">
+        <v>45376</v>
+      </c>
+      <c r="F75" s="6">
+        <v>45382</v>
+      </c>
+      <c r="G75" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="10">
+        <v>45376</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F77" s="6">
+        <v>45383</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="10">
-        <v>45371</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45371</v>
+      <c r="D78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="105">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45383</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F80" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F81" s="6">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="10">
+        <v>45379</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="10">
+        <v>45384</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45384</v>
+      </c>
+      <c r="H83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="10">
+        <v>45384</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45396</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6DBE4F-9805-4DC7-90C6-98750D2E7B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA75A1-C932-43CE-9949-AF95B4706E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <r>
       <t>System Name</t>
@@ -671,6 +671,15 @@
   </si>
   <si>
     <t>approve button should be named 'review'.</t>
+  </si>
+  <si>
+    <t>limit and utilized amount fields should be related to facility account not for this current customer account.</t>
+  </si>
+  <si>
+    <t>advise of payment-&gt; Payment type field.</t>
+  </si>
+  <si>
+    <t>this field should be enabled.</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,8 +1665,8 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>90</v>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -1666,6 +1675,9 @@
         <v>45354</v>
       </c>
       <c r="F20" s="6">
+        <v>45396</v>
+      </c>
+      <c r="G20" s="6">
         <v>45396</v>
       </c>
     </row>
@@ -2708,8 +2720,8 @@
       <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>90</v>
+      <c r="C66" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>115</v>
@@ -2718,7 +2730,10 @@
         <v>45369</v>
       </c>
       <c r="F66" s="6">
-        <v>45396</v>
+        <v>45397</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45397</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2820,8 +2835,8 @@
       <c r="B71" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>10</v>
+      <c r="C71" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>126</v>
@@ -2830,7 +2845,10 @@
         <v>45371</v>
       </c>
       <c r="F71" s="6">
-        <v>45396</v>
+        <v>45397</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45397</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="90">
@@ -2840,8 +2858,8 @@
       <c r="B72" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>90</v>
+      <c r="C72" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>124</v>
@@ -2850,7 +2868,10 @@
         <v>45371</v>
       </c>
       <c r="F72" s="6">
-        <v>45396</v>
+        <v>45397</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45397</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45">
@@ -2895,6 +2916,9 @@
       <c r="F74" s="6">
         <v>45382</v>
       </c>
+      <c r="G74" s="6">
+        <v>45382</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="45">
       <c r="A75">
@@ -3109,6 +3133,46 @@
       </c>
       <c r="F84" s="6">
         <v>45396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="10">
+        <v>45397</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="10">
+        <v>45398</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45398</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA75A1-C932-43CE-9949-AF95B4706E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF5C0D-279E-4D22-ADE9-B71D62E587DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
   <si>
     <r>
       <t>System Name</t>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>expiry bill</t>
-  </si>
-  <si>
-    <t>not working.</t>
   </si>
   <si>
     <t>we made MT416 then  MT400</t>
@@ -280,9 +277,6 @@
     <t>all the disabled field to be in gray color.</t>
   </si>
   <si>
-    <t>the OUP charges need configuration.</t>
-  </si>
-  <si>
     <t>advice of payment, with MT202 option to pay.</t>
   </si>
   <si>
@@ -305,13 +299,6 @@
   </si>
   <si>
     <t>all disabled fields in 'Bill Lodgment details' section to be in gray color.</t>
-  </si>
-  <si>
-    <t>acknowledgment MT410(normal case)</t>
-  </si>
-  <si>
-    <t>charges need confugration, no currency, no debit acccount,
-no rate type, no exchange rate.</t>
   </si>
   <si>
     <t>53a, 54a, 57a, 58a, all of them are not reflected correctly to
@@ -343,9 +330,6 @@
   </si>
   <si>
     <t>we are in need to 'bill of lading date'field to be added.</t>
-  </si>
-  <si>
-    <t>advising and postage commission to be found by default in OUP charge.</t>
   </si>
   <si>
     <t>Bill No format is not correct, it should be like this: IDC0106000324</t>
@@ -652,9 +636,6 @@
 blank, in this case no need to be reflected to the swift message.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fail</t>
-  </si>
-  <si>
     <t>Import Bill Primary Details-&gt; creation mode -&gt; Document Details  section -&gt;number of set field</t>
   </si>
   <si>
@@ -680,6 +661,37 @@
   </si>
   <si>
     <t>this field should be enabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pass</t>
+  </si>
+  <si>
+    <t>we did not see any effect of this event
+ on the bill, because we could to pay
+ it after we cancel it, also we did not
+ see the status of this bill('CANCELED', 'CLOSED').</t>
+  </si>
+  <si>
+    <t>we colud not select any account id to
+ complete the event.</t>
+  </si>
+  <si>
+    <t>it is supposed to prevent the user to pay it after cancelation or closing or expire.</t>
+  </si>
+  <si>
+    <t>apply expiry('cancel, 'close') on a specific bill-&gt; try to pay this bill.</t>
+  </si>
+  <si>
+    <t>apply expiry('cancel, 'close') on a specific bill.</t>
+  </si>
+  <si>
+    <t>this bill should be marked by the new status('canceled', 'closed'..) every where I see this bill.</t>
+  </si>
+  <si>
+    <t>apply expiry('cancel, 'close') on a specific bill-&gt; try to accept(advice of acceptance) this bill.</t>
+  </si>
+  <si>
+    <t>apply expiry('cancel, 'close') on a specific bill-&gt; try to refuse(advice of non-acceptance) this bill.</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,7 +1281,7 @@
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1292,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1291,12 +1303,12 @@
       <c r="D2" s="25"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1308,13 +1320,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1322,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10">
         <v>45326</v>
@@ -1337,18 +1352,18 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10">
         <v>45326</v>
@@ -1360,18 +1375,18 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E6" s="11">
         <v>45326</v>
@@ -1383,7 +1398,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1406,7 +1421,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1429,7 +1444,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1446,72 +1461,81 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" ht="90">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="10">
         <v>45328</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45">
+      <c r="F10" s="6">
+        <v>45406</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45406</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="11">
         <v>45328</v>
       </c>
       <c r="F11" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>45403</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10">
         <v>45333</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10">
         <v>45336</v>
@@ -1523,18 +1547,18 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E14" s="11">
         <v>45336</v>
@@ -1546,7 +1570,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1554,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11">
         <v>45340</v>
@@ -1569,18 +1593,18 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="56.25" customHeight="1">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16" s="10">
         <v>45347</v>
@@ -1597,13 +1621,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
       </c>
       <c r="E17" s="10">
         <v>45347</v>
@@ -1612,7 +1636,7 @@
         <v>45347</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" customHeight="1">
@@ -1620,13 +1644,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="11">
         <v>45347</v>
@@ -1640,13 +1664,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="10">
         <v>45349</v>
@@ -1663,13 +1687,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
       </c>
       <c r="E20" s="10">
         <v>45354</v>
@@ -1686,13 +1710,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="10">
         <v>45354</v>
@@ -1712,10 +1736,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10">
         <v>45354</v>
@@ -1732,13 +1756,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="10">
         <v>45354</v>
@@ -1755,13 +1779,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="10">
         <v>45354</v>
@@ -1778,13 +1802,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="10">
         <v>45354</v>
@@ -1801,13 +1825,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="10">
         <v>45354</v>
@@ -1824,13 +1848,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E27" s="10">
         <v>45354</v>
@@ -1847,13 +1871,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10">
         <v>45354</v>
@@ -1870,13 +1894,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="10">
         <v>45354</v>
@@ -1893,13 +1917,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E30" s="10">
         <v>45354</v>
@@ -1916,13 +1940,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="10">
         <v>45354</v>
@@ -1939,13 +1963,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="10">
         <v>45354</v>
@@ -1957,15 +1981,15 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="30">
       <c r="A33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -1974,21 +1998,24 @@
         <v>45354</v>
       </c>
       <c r="F33" s="6">
-        <v>45362</v>
+        <v>45369</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45369</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E34" s="10">
         <v>45354</v>
@@ -2002,171 +2029,180 @@
     </row>
     <row r="35" spans="1:8" ht="30">
       <c r="A35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E35" s="10">
         <v>45354</v>
       </c>
       <c r="F35" s="6">
-        <v>45369</v>
+        <v>45377</v>
       </c>
       <c r="G35" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30">
       <c r="A36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10">
         <v>45354</v>
       </c>
       <c r="F36" s="6">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30">
+        <v>45368</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F37" s="6">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="G37" s="6">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45">
       <c r="A38">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E38" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F38" s="6">
-        <v>45368</v>
+        <v>45382</v>
       </c>
       <c r="G38" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" s="10">
         <v>45356</v>
       </c>
       <c r="F39" s="6">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>45368</v>
+      </c>
+      <c r="H39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45">
       <c r="A40">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E40" s="10">
         <v>45356</v>
       </c>
       <c r="F40" s="6">
-        <v>45383</v>
+        <v>45368</v>
       </c>
       <c r="G40" s="6">
-        <v>45383</v>
+        <v>45368</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45">
       <c r="A41">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E41" s="10">
         <v>45356</v>
       </c>
       <c r="F41" s="6">
-        <v>45382</v>
+        <v>45376</v>
       </c>
       <c r="G41" s="6">
-        <v>45382</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E42" s="10">
         <v>45356</v>
@@ -2174,22 +2210,22 @@
       <c r="F42" s="6">
         <v>45368</v>
       </c>
-      <c r="H42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="45">
+      <c r="G42" s="6">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E43" s="10">
         <v>45356</v>
@@ -2200,71 +2236,68 @@
       <c r="G43" s="6">
         <v>45368</v>
       </c>
-      <c r="H43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="45">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E44" s="10">
         <v>45356</v>
       </c>
       <c r="F44" s="6">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="G44" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
       <c r="A45">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E45" s="10">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="F45" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G45" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
       <c r="A46">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E46" s="10">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="F46" s="6">
         <v>45368</v>
@@ -2273,64 +2306,67 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="30">
       <c r="A47">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E47" s="10">
-        <v>45356</v>
+        <v>45326</v>
       </c>
       <c r="F47" s="6">
-        <v>45368</v>
+        <v>45365</v>
       </c>
       <c r="G47" s="6">
-        <v>45368</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30">
       <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E48" s="10">
-        <v>45356</v>
+        <v>45368</v>
       </c>
       <c r="F48" s="6">
-        <v>45356</v>
+        <v>45368</v>
+      </c>
+      <c r="G48" s="6">
+        <v>45376</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30">
       <c r="A49">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E49" s="10">
-        <v>45357</v>
+        <v>45368</v>
       </c>
       <c r="F49" s="6">
         <v>45369</v>
@@ -2339,349 +2375,349 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8">
       <c r="A50">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E50" s="10">
-        <v>45357</v>
+        <v>45368</v>
       </c>
       <c r="F50" s="6">
-        <v>45368</v>
+        <v>45376</v>
       </c>
       <c r="G50" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E51" s="10">
-        <v>45326</v>
+        <v>45368</v>
       </c>
       <c r="F51" s="6">
-        <v>45365</v>
+        <v>45375</v>
       </c>
       <c r="G51" s="6">
-        <v>45365</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="10">
         <v>45368</v>
       </c>
       <c r="F52" s="6">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="G52" s="6">
-        <v>45376</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30">
       <c r="A53">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="10">
         <v>45368</v>
       </c>
       <c r="F53" s="6">
-        <v>45369</v>
+        <v>45383</v>
       </c>
       <c r="G53" s="6">
-        <v>45369</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E54" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F54" s="6">
+        <v>45383</v>
+      </c>
+      <c r="G54" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="60">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="10">
+        <v>45369</v>
+      </c>
+      <c r="F55" s="6">
         <v>45376</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>45376</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="10">
-        <v>45368</v>
-      </c>
-      <c r="F55" s="6">
-        <v>45375</v>
-      </c>
-      <c r="G55" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="45">
       <c r="A56">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E56" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F56" s="6">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="G56" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
+        <v>45383</v>
+      </c>
+      <c r="H56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="135">
       <c r="A57">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E57" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F57" s="6">
         <v>45383</v>
       </c>
-      <c r="G57" s="6">
-        <v>45383</v>
+      <c r="H57" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E58" s="10">
         <v>45369</v>
       </c>
       <c r="F58" s="6">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="G58" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="60">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45">
       <c r="A59">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E59" s="10">
         <v>45369</v>
       </c>
       <c r="F59" s="6">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="G59" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45">
+        <v>45383</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E60" s="10">
         <v>45369</v>
       </c>
       <c r="F60" s="6">
-        <v>45383</v>
+        <v>45376</v>
       </c>
       <c r="G60" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="135">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E61" s="10">
         <v>45369</v>
       </c>
       <c r="F61" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>45376</v>
+      </c>
+      <c r="G61" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30">
       <c r="A62">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="10">
         <v>45369</v>
       </c>
       <c r="F62" s="6">
-        <v>45375</v>
+        <v>45397</v>
       </c>
       <c r="G62" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="45">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E63" s="10">
         <v>45369</v>
       </c>
       <c r="F63" s="6">
-        <v>45383</v>
+        <v>45377</v>
       </c>
       <c r="G63" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60">
       <c r="A64">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E64" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F64" s="6">
         <v>45376</v>
@@ -2692,82 +2728,82 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F65" s="6">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="G65" s="6">
-        <v>45376</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30">
       <c r="A66">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F66" s="6">
+        <v>45375</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F67" s="6">
         <v>45397</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>45397</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="10">
-        <v>45369</v>
-      </c>
-      <c r="F67" s="6">
-        <v>45377</v>
-      </c>
-      <c r="G67" s="6">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="60">
+    <row r="68" spans="1:8" ht="90">
       <c r="A68">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>119</v>
@@ -2776,119 +2812,116 @@
         <v>45371</v>
       </c>
       <c r="F68" s="6">
+        <v>45397</v>
+      </c>
+      <c r="G68" s="6">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="10">
         <v>45376</v>
       </c>
-      <c r="G68" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="10">
-        <v>45371</v>
-      </c>
       <c r="F69" s="6">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="G69" s="6">
-        <v>45375</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="30">
       <c r="A70">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
+        <v>71</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E70" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F70" s="6">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="G70" s="6">
-        <v>45375</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45">
       <c r="A71">
-        <v>68</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>125</v>
+        <v>72</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E71" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F71" s="6">
-        <v>45397</v>
+        <v>45382</v>
       </c>
       <c r="G71" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="90">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45">
       <c r="A72">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E72" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F72" s="6">
-        <v>45397</v>
-      </c>
-      <c r="G72" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="45">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="10">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="F73" s="6">
         <v>45383</v>
@@ -2899,248 +2932,245 @@
     </row>
     <row r="74" spans="1:8" ht="30">
       <c r="A74">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E74" s="10">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="F74" s="6">
-        <v>45382</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="45">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="105">
       <c r="A75">
-        <v>72</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>136</v>
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
       </c>
       <c r="E75" s="10">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="F75" s="6">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="G75" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="45">
+        <v>45383</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30">
       <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>138</v>
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E76" s="10">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="F76" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30">
+        <v>45405</v>
+      </c>
+      <c r="G76" s="6">
+        <v>45405</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45">
       <c r="A77">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E77" s="10">
         <v>45378</v>
       </c>
       <c r="F77" s="6">
-        <v>45383</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45">
       <c r="A78">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="10">
+        <v>45379</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30">
+      <c r="A79">
+        <v>81</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="10">
-        <v>45378</v>
-      </c>
-      <c r="F78" s="6">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="105">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
-      </c>
       <c r="E79" s="10">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="F79" s="6">
-        <v>45383</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>143</v>
+        <v>45384</v>
+      </c>
+      <c r="H79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E80" s="10">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="F80" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30">
       <c r="A81">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E81" s="10">
-        <v>45378</v>
+        <v>45397</v>
       </c>
       <c r="F81" s="6">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="45">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E82" s="10">
-        <v>45379</v>
+        <v>45398</v>
       </c>
       <c r="F82" s="6">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30">
       <c r="A83">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E83" s="10">
-        <v>45384</v>
+        <v>45405</v>
       </c>
       <c r="F83" s="6">
-        <v>45384</v>
-      </c>
-      <c r="H83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30">
       <c r="A84">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>90</v>
+        <v>164</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E84" s="10">
-        <v>45384</v>
+        <v>45405</v>
       </c>
       <c r="F84" s="6">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30">
       <c r="A85">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>10</v>
@@ -3149,30 +3179,30 @@
         <v>159</v>
       </c>
       <c r="E85" s="10">
-        <v>45397</v>
+        <v>45405</v>
       </c>
       <c r="F85" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30">
       <c r="A86">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E86" s="10">
-        <v>45398</v>
+        <v>45405</v>
       </c>
       <c r="F86" s="6">
-        <v>45398</v>
+        <v>45405</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF5C0D-279E-4D22-ADE9-B71D62E587DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A8E4E-009B-42DD-B9A8-10A6C1F275E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$84</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
   <si>
     <r>
       <t>System Name</t>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>import bills enquiry.</t>
-  </si>
-  <si>
-    <t>no options in stage field</t>
   </si>
   <si>
     <t>Pass</t>
@@ -314,9 +311,6 @@
     <t>primary details event.</t>
   </si>
   <si>
-    <t>INCO term field to be removed</t>
-  </si>
-  <si>
     <t>primary details event, receipt date field, fill it with any previous date.</t>
   </si>
   <si>
@@ -360,32 +354,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Import LIC/OGL, License Number, License Date, 
-Permit Number, Permit Issue , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all of them to be moved to payment event</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, not used in primary details event.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1- we are in need to field for drawee account to be more flexable with the debited account.
 </t>
   </si>
@@ -394,12 +362,6 @@
   </si>
   <si>
     <t>advise of payment with MT103</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>unknown options</t>
   </si>
   <si>
     <t>you made them optional, so will check it with the concerned staff</t>
@@ -636,18 +598,6 @@
 blank, in this case no need to be reflected to the swift message.</t>
   </si>
   <si>
-    <t>Import Bill Primary Details-&gt; creation mode -&gt; Document Details  section -&gt;number of set field</t>
-  </si>
-  <si>
-    <t>this field is not wanted, should be removed.</t>
-  </si>
-  <si>
-    <t>bank team refused this field, and asked to be removed.</t>
-  </si>
-  <si>
-    <t>this field is meaningless in import bills.</t>
-  </si>
-  <si>
     <t>Import Bill Primary Details-&gt; authorization mode(reviwer).</t>
   </si>
   <si>
@@ -692,6 +642,78 @@
   </si>
   <si>
     <t>apply expiry('cancel, 'close') on a specific bill-&gt; try to refuse(advice of non-acceptance) this bill.</t>
+  </si>
+  <si>
+    <t>Import LIC/OGL, License Number, License Date, 
+Permit Number, Permit Issue , all of them to be moved to payment event.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import LIC/OGL, License Number, License Date, 
+Permit Number, Permit Issue , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not used in primary details event.</t>
+    </r>
+  </si>
+  <si>
+    <t>in MT400 Advice Of Payment -&gt; creation mode-&gt; with no facility account</t>
+  </si>
+  <si>
+    <t>Limit Type field should be disabled.</t>
+  </si>
+  <si>
+    <t>in MT400 Advice Of Payment -&gt; creation mode-&gt; with facility account</t>
+  </si>
+  <si>
+    <t>Approved Limit &amp; UnUtilized Amount should change according to the selected facility account.</t>
+  </si>
+  <si>
+    <t>Import Bill lodgement event -&gt; creation mode-&gt; with facility account</t>
+  </si>
+  <si>
+    <t>Import Bill lodgement event -&gt; creation mode-&gt; select non finance type.</t>
+  </si>
+  <si>
+    <t>Facility A/C field should be disabled(currently is eneabled)</t>
+  </si>
+  <si>
+    <t>Import Bill Primary Details-&gt; creation mode -&gt; payment type.</t>
+  </si>
+  <si>
+    <t>From Event field &amp; Due Date to be disabled.</t>
+  </si>
+  <si>
+    <t>in MT400 Advice Of Payment -&gt; creation mode-&gt; without facility account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To be Refund From Facility Account field to be disabled.</t>
+  </si>
+  <si>
+    <t>in MT400 Advice Of Payment -&gt; creation mode-&gt; with custom charge 5%.</t>
+  </si>
+  <si>
+    <t>the accounting entries for custom charges is not correct in the generated voucher.</t>
+  </si>
+  <si>
+    <t>MT410 Acknowledgement-&gt; creation mode -&gt; view voucher.</t>
+  </si>
+  <si>
+    <t>failed to view the voucher.</t>
+  </si>
+  <si>
+    <t>refund of Custom Security Amount event -&gt;creation mode.</t>
+  </si>
+  <si>
+    <t>when search for specific bill, no options fetched at all.</t>
   </si>
 </sst>
 </file>
@@ -702,7 +724,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,8 +778,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,11 +984,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1263,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1308,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1320,12 +1342,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1337,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10">
         <v>45326</v>
@@ -1357,13 +1379,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10">
         <v>45326</v>
@@ -1380,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="11">
         <v>45326</v>
@@ -1406,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1429,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1451,14 +1473,20 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="10">
         <v>45328</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45332</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45332</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90">
@@ -1469,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10">
         <v>45328</v>
@@ -1481,7 +1509,7 @@
         <v>45406</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45">
@@ -1492,7 +1520,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1529,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1555,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
@@ -1578,10 +1606,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="11">
         <v>45340</v>
@@ -1601,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1616,106 +1644,109 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7" ht="45" customHeight="1">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="11">
         <v>45347</v>
       </c>
       <c r="F17" s="6">
-        <v>45347</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1">
+        <v>45425</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45347</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10">
+        <v>45349</v>
       </c>
       <c r="F18" s="6">
-        <v>45347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>45376</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E19" s="10">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="F19" s="6">
-        <v>45376</v>
+        <v>45396</v>
       </c>
       <c r="G19" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10">
         <v>45354</v>
       </c>
       <c r="F20" s="6">
-        <v>45396</v>
+        <v>45368</v>
       </c>
       <c r="G20" s="6">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="10">
@@ -1728,38 +1759,38 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="10">
         <v>45354</v>
       </c>
       <c r="F22" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G22" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="195">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>45</v>
@@ -1768,21 +1799,21 @@
         <v>45354</v>
       </c>
       <c r="F23" s="6">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="G23" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="195">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>46</v>
@@ -1797,15 +1828,15 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
@@ -1820,18 +1851,18 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:7">
       <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="10">
         <v>45354</v>
@@ -1843,17 +1874,17 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="10">
@@ -1866,87 +1897,87 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="10">
         <v>45354</v>
       </c>
       <c r="F28" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G28" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10">
         <v>45354</v>
       </c>
       <c r="F29" s="6">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="G29" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="10">
         <v>45354</v>
       </c>
       <c r="F30" s="6">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="G30" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="10">
         <v>45354</v>
@@ -1958,41 +1989,41 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" s="10">
         <v>45354</v>
       </c>
       <c r="F32" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="G32" s="6">
-        <v>45368</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E33" s="10">
         <v>45354</v>
@@ -2006,128 +2037,131 @@
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E34" s="10">
         <v>45354</v>
       </c>
       <c r="F34" s="6">
-        <v>45369</v>
+        <v>45377</v>
       </c>
       <c r="G34" s="6">
-        <v>45369</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="10">
         <v>45354</v>
       </c>
       <c r="F35" s="6">
-        <v>45377</v>
+        <v>45368</v>
       </c>
       <c r="G35" s="6">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="10">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="F36" s="6">
-        <v>45368</v>
+        <v>45383</v>
       </c>
       <c r="G36" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45">
       <c r="A37">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E37" s="10">
         <v>45356</v>
       </c>
       <c r="F37" s="6">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="G37" s="6">
-        <v>45383</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E38" s="10">
         <v>45356</v>
       </c>
       <c r="F38" s="6">
-        <v>45382</v>
+        <v>45368</v>
       </c>
       <c r="G38" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>45420</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45">
       <c r="A39">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>10</v>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>73</v>
@@ -2136,24 +2170,24 @@
         <v>45356</v>
       </c>
       <c r="F39" s="6">
-        <v>45368</v>
-      </c>
-      <c r="H39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45">
+        <v>45376</v>
+      </c>
+      <c r="G39" s="6">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E40" s="10">
         <v>45356</v>
@@ -2164,42 +2198,39 @@
       <c r="G40" s="6">
         <v>45368</v>
       </c>
-      <c r="H40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="10">
         <v>45356</v>
       </c>
       <c r="F41" s="6">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="G41" s="6">
-        <v>45376</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>76</v>
@@ -2214,44 +2245,44 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="30">
       <c r="A43">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="10">
+        <v>45357</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45369</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="10">
-        <v>45356</v>
-      </c>
-      <c r="F43" s="6">
-        <v>45368</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E44" s="10">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="F44" s="6">
         <v>45368</v>
@@ -2262,223 +2293,223 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E45" s="10">
-        <v>45357</v>
+        <v>45326</v>
       </c>
       <c r="F45" s="6">
-        <v>45369</v>
+        <v>45365</v>
       </c>
       <c r="G45" s="6">
-        <v>45369</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E46" s="10">
-        <v>45357</v>
+        <v>45368</v>
       </c>
       <c r="F46" s="6">
         <v>45368</v>
       </c>
       <c r="G46" s="6">
-        <v>45368</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
       <c r="A47">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="10">
-        <v>45326</v>
+        <v>45368</v>
       </c>
       <c r="F47" s="6">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="G47" s="6">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
-        <v>49</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E48" s="10">
         <v>45368</v>
       </c>
       <c r="F48" s="6">
-        <v>45368</v>
+        <v>45376</v>
       </c>
       <c r="G48" s="6">
         <v>45376</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30">
+    <row r="49" spans="1:8">
       <c r="A49">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="10">
+        <v>45368</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45375</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="10">
-        <v>45368</v>
-      </c>
-      <c r="F49" s="6">
-        <v>45369</v>
-      </c>
-      <c r="G49" s="6">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E50" s="10">
+        <v>45368</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45375</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="10">
-        <v>45368</v>
-      </c>
-      <c r="F50" s="6">
-        <v>45376</v>
-      </c>
-      <c r="G50" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E51" s="10">
         <v>45368</v>
       </c>
       <c r="F51" s="6">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="G51" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>29</v>
+      <c r="C52" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F52" s="6">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="G52" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60">
       <c r="A53">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="10">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="F53" s="6">
-        <v>45383</v>
+        <v>45376</v>
       </c>
       <c r="G53" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45">
       <c r="A54">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>29</v>
+        <v>99</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="10">
         <v>45369</v>
@@ -2489,16 +2520,19 @@
       <c r="G54" s="6">
         <v>45383</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="60">
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="120">
       <c r="A55">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>103</v>
@@ -2507,50 +2541,50 @@
         <v>45369</v>
       </c>
       <c r="F55" s="6">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="G55" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="45">
+        <v>45417</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E56" s="10">
         <v>45369</v>
       </c>
       <c r="F56" s="6">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="G56" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="135">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45">
       <c r="A57">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E57" s="10">
         <v>45369</v>
@@ -2558,183 +2592,183 @@
       <c r="F57" s="6">
         <v>45383</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>124</v>
+      <c r="G57" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H57" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E58" s="10">
         <v>45369</v>
       </c>
       <c r="F58" s="6">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="G58" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="10">
         <v>45369</v>
       </c>
       <c r="F59" s="6">
-        <v>45383</v>
+        <v>45376</v>
       </c>
       <c r="G59" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30">
       <c r="A60">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E60" s="10">
         <v>45369</v>
       </c>
       <c r="F60" s="6">
-        <v>45376</v>
+        <v>45397</v>
       </c>
       <c r="G60" s="6">
-        <v>45376</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E61" s="10">
         <v>45369</v>
       </c>
       <c r="F61" s="6">
+        <v>45377</v>
+      </c>
+      <c r="G61" s="6">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60">
+      <c r="A62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="10">
+        <v>45371</v>
+      </c>
+      <c r="F62" s="6">
         <v>45376</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>45376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30">
-      <c r="A62">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="10">
-        <v>45369</v>
-      </c>
-      <c r="F62" s="6">
-        <v>45397</v>
-      </c>
-      <c r="G62" s="6">
-        <v>45397</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E63" s="10">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F63" s="6">
-        <v>45377</v>
+        <v>45375</v>
       </c>
       <c r="G63" s="6">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="60">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30">
       <c r="A64">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>113</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="10">
         <v>45371</v>
       </c>
       <c r="F64" s="6">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="G64" s="6">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45">
       <c r="A65">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>116</v>
@@ -2743,90 +2777,90 @@
         <v>45371</v>
       </c>
       <c r="F65" s="6">
-        <v>45375</v>
+        <v>45397</v>
       </c>
       <c r="G65" s="6">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="90">
       <c r="A66">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E66" s="10">
         <v>45371</v>
       </c>
       <c r="F66" s="6">
-        <v>45375</v>
+        <v>45397</v>
       </c>
       <c r="G66" s="6">
-        <v>45375</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45">
       <c r="A67">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E67" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F67" s="6">
-        <v>45397</v>
+        <v>45383</v>
       </c>
       <c r="G67" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="90">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30">
       <c r="A68">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E68" s="10">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="F68" s="6">
-        <v>45397</v>
+        <v>45382</v>
       </c>
       <c r="G68" s="6">
-        <v>45397</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45">
       <c r="A69">
-        <v>70</v>
-      </c>
-      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>126</v>
@@ -2835,90 +2869,93 @@
         <v>45376</v>
       </c>
       <c r="F69" s="6">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="G69" s="6">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45">
       <c r="A70">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E70" s="10">
         <v>45376</v>
       </c>
       <c r="F70" s="6">
-        <v>45382</v>
+        <v>45417</v>
       </c>
       <c r="G70" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="45">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30">
       <c r="A71">
-        <v>72</v>
-      </c>
-      <c r="B71" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45383</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72">
+        <v>75</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="10">
+        <v>45378</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45425</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="105">
+      <c r="A73">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="10">
-        <v>45376</v>
-      </c>
-      <c r="F71" s="6">
-        <v>45382</v>
-      </c>
-      <c r="G71" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="45">
-      <c r="A72">
-        <v>73</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="C73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
         <v>132</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="10">
-        <v>45376</v>
-      </c>
-      <c r="F72" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73">
-        <v>74</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E73" s="10">
         <v>45378</v>
@@ -2929,214 +2966,229 @@
       <c r="G73" s="6">
         <v>45383</v>
       </c>
+      <c r="H73" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="30">
       <c r="A74">
-        <v>75</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E74" s="10">
         <v>45378</v>
       </c>
       <c r="F74" s="6">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="105">
+        <v>45405</v>
+      </c>
+      <c r="G74" s="6">
+        <v>45405</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45">
       <c r="A75">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E75" s="10">
         <v>45378</v>
       </c>
       <c r="F75" s="6">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="G75" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45">
       <c r="A76">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>139</v>
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E76" s="10">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="F76" s="6">
-        <v>45405</v>
+        <v>45417</v>
       </c>
       <c r="G76" s="6">
-        <v>45405</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="45">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="10">
+        <v>45384</v>
+      </c>
+      <c r="F77" s="6">
+        <v>45412</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30">
+      <c r="A78">
+        <v>83</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="10">
+        <v>45397</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45425</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>84</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="10">
-        <v>45378</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="45">
-      <c r="A78">
-        <v>80</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E78" s="10">
-        <v>45379</v>
-      </c>
-      <c r="F78" s="6">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30">
-      <c r="A79">
-        <v>81</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="E79" s="10">
-        <v>45384</v>
+        <v>45398</v>
       </c>
       <c r="F79" s="6">
-        <v>45384</v>
-      </c>
-      <c r="H79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30">
       <c r="A80">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>85</v>
+      <c r="C80" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E80" s="10">
-        <v>45384</v>
+        <v>45405</v>
       </c>
       <c r="F80" s="6">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30">
+        <v>45417</v>
+      </c>
+      <c r="G80" s="6">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30">
       <c r="A81">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E81" s="10">
-        <v>45397</v>
+        <v>45405</v>
       </c>
       <c r="F81" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>45417</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30">
       <c r="A82">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="10">
+        <v>45405</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45417</v>
+      </c>
+      <c r="G82" s="6">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="10">
-        <v>45398</v>
-      </c>
-      <c r="F82" s="6">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30">
-      <c r="A83">
-        <v>85</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E83" s="10">
         <v>45405</v>
@@ -3145,67 +3197,208 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30">
+    <row r="84" spans="1:7" ht="45">
       <c r="A84">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E84" s="10">
-        <v>45405</v>
+        <v>45356</v>
       </c>
       <c r="F84" s="6">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E85" s="10">
-        <v>45405</v>
+        <v>45425</v>
       </c>
       <c r="F85" s="6">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30">
       <c r="A86">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="E86" s="10">
+        <v>45425</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30">
+      <c r="A87">
+        <v>90</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" s="10">
-        <v>45405</v>
-      </c>
-      <c r="F86" s="6">
-        <v>45405</v>
+      <c r="D87" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="10">
+        <v>45425</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="10">
+        <v>45425</v>
+      </c>
+      <c r="F88" s="6">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="10">
+        <v>45434</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30">
+      <c r="A90">
+        <v>93</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" s="10">
+        <v>45438</v>
+      </c>
+      <c r="F90" s="6">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30">
+      <c r="A91">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="10">
+        <v>45438</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>95</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="10">
+        <v>45438</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="10">
+        <v>45438</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45438</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>

--- a/Bug Reports/import bills bugs report.xlsx
+++ b/Bug Reports/import bills bugs report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A8E4E-009B-42DD-B9A8-10A6C1F275E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69378E7F-3E90-4485-BD6C-1D3558F42982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$96</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
   <si>
     <r>
       <t>System Name</t>
@@ -613,9 +613,6 @@
     <t>this field should be enabled.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pass</t>
-  </si>
-  <si>
     <t>we did not see any effect of this event
  on the bill, because we could to pay
  it after we cancel it, also we did not
@@ -714,6 +711,27 @@
   </si>
   <si>
     <t>when search for specific bill, no options fetched at all.</t>
+  </si>
+  <si>
+    <t>enquiry event.</t>
+  </si>
+  <si>
+    <t>the user usually searchs by the reference of this product only, no need to fill the customer number.</t>
+  </si>
+  <si>
+    <t>you consider the customer number is mandatory field.</t>
+  </si>
+  <si>
+    <t>for each stage(event), when click on view button, bank team expects to give them the details of this event(all the details), currently you view the same result for all stage(the results should change with the viewed stage).</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>advise of payment.</t>
+  </si>
+  <si>
+    <t>license date and license number fields should be enabled in this event.</t>
   </si>
 </sst>
 </file>
@@ -785,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,12 +849,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -961,17 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,12 +985,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1285,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1297,36 +1308,36 @@
     <col min="2" max="2" width="74.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="56.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1338,7 +1349,7 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1347,12 +1358,13 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1364,7 +1376,7 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>45326</v>
       </c>
       <c r="F4" s="6">
@@ -1376,6 +1388,7 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5">
+        <f t="shared" ref="A5:A68" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1387,7 +1400,7 @@
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>45326</v>
       </c>
       <c r="F5" s="6">
@@ -1399,6 +1412,7 @@
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1410,7 +1424,7 @@
       <c r="D6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="18">
         <v>45326</v>
       </c>
       <c r="F6" s="6">
@@ -1422,6 +1436,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1433,7 +1448,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>45327</v>
       </c>
       <c r="F7" s="6">
@@ -1445,6 +1460,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1456,7 +1472,7 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>45328</v>
       </c>
       <c r="F8" s="6">
@@ -1468,6 +1484,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1479,7 +1496,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>45328</v>
       </c>
       <c r="F9" s="6">
@@ -1491,6 +1508,7 @@
     </row>
     <row r="10" spans="1:8" ht="90">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1499,7 +1517,7 @@
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>45328</v>
       </c>
       <c r="F10" s="6">
@@ -1509,23 +1527,24 @@
         <v>45406</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>45328</v>
       </c>
       <c r="F11" s="6">
@@ -1537,35 +1556,37 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+      <c r="C12" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>45333</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>45336</v>
       </c>
       <c r="F13" s="6">
@@ -1577,6 +1598,7 @@
     </row>
     <row r="14" spans="1:8" ht="45">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -1588,7 +1610,7 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="18">
         <v>45336</v>
       </c>
       <c r="F14" s="6">
@@ -1600,6 +1622,7 @@
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1611,7 +1634,7 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="18">
         <v>45340</v>
       </c>
       <c r="F15" s="6">
@@ -1623,6 +1646,7 @@
     </row>
     <row r="16" spans="1:8" ht="56.25" customHeight="1">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1634,7 +1658,7 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>45347</v>
       </c>
       <c r="F16" s="6">
@@ -1646,7 +1670,8 @@
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
       <c r="A17">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1657,7 +1682,7 @@
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="18">
         <v>45347</v>
       </c>
       <c r="F17" s="6">
@@ -1669,7 +1694,8 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1680,7 +1706,7 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>45349</v>
       </c>
       <c r="F18" s="6">
@@ -1692,7 +1718,8 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1703,7 +1730,7 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>45354</v>
       </c>
       <c r="F19" s="6">
@@ -1715,7 +1742,8 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1726,7 +1754,7 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>45354</v>
       </c>
       <c r="F20" s="6">
@@ -1738,7 +1766,8 @@
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1749,7 +1778,7 @@
       <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>45354</v>
       </c>
       <c r="F21" s="6">
@@ -1761,7 +1790,8 @@
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -1772,7 +1802,7 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>45354</v>
       </c>
       <c r="F22" s="6">
@@ -1784,7 +1814,8 @@
     </row>
     <row r="23" spans="1:7" ht="195">
       <c r="A23">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -1795,7 +1826,7 @@
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>45354</v>
       </c>
       <c r="F23" s="6">
@@ -1807,7 +1838,8 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -1818,7 +1850,7 @@
       <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>45354</v>
       </c>
       <c r="F24" s="6">
@@ -1830,7 +1862,8 @@
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
@@ -1841,7 +1874,7 @@
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>45354</v>
       </c>
       <c r="F25" s="6">
@@ -1853,7 +1886,8 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -1864,7 +1898,7 @@
       <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>45354</v>
       </c>
       <c r="F26" s="6">
@@ -1876,7 +1910,8 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -1884,10 +1919,10 @@
       <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>45354</v>
       </c>
       <c r="F27" s="6">
@@ -1899,7 +1934,8 @@
     </row>
     <row r="28" spans="1:7" ht="60">
       <c r="A28">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -1910,7 +1946,7 @@
       <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>45354</v>
       </c>
       <c r="F28" s="6">
@@ -1922,7 +1958,8 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -1933,7 +1970,7 @@
       <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>45354</v>
       </c>
       <c r="F29" s="6">
@@ -1945,7 +1982,8 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -1956,7 +1994,7 @@
       <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>45354</v>
       </c>
       <c r="F30" s="6">
@@ -1968,7 +2006,8 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -1979,7 +2018,7 @@
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>45354</v>
       </c>
       <c r="F31" s="6">
@@ -1991,7 +2030,8 @@
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -2002,7 +2042,7 @@
       <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>45354</v>
       </c>
       <c r="F32" s="6">
@@ -2014,7 +2054,8 @@
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
@@ -2025,7 +2066,7 @@
       <c r="D33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>45354</v>
       </c>
       <c r="F33" s="6">
@@ -2037,7 +2078,8 @@
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
@@ -2048,7 +2090,7 @@
       <c r="D34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <v>45354</v>
       </c>
       <c r="F34" s="6">
@@ -2060,7 +2102,8 @@
     </row>
     <row r="35" spans="1:8" ht="30">
       <c r="A35">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
@@ -2071,7 +2114,7 @@
       <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <v>45354</v>
       </c>
       <c r="F35" s="6">
@@ -2083,7 +2126,8 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2094,7 +2138,7 @@
       <c r="D36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <v>45356</v>
       </c>
       <c r="F36" s="6">
@@ -2106,7 +2150,8 @@
     </row>
     <row r="37" spans="1:8" ht="45">
       <c r="A37">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -2117,7 +2162,7 @@
       <c r="D37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="6">
         <v>45356</v>
       </c>
       <c r="F37" s="6">
@@ -2129,7 +2174,8 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -2138,9 +2184,9 @@
         <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="10">
+        <v>156</v>
+      </c>
+      <c r="E38" s="6">
         <v>45356</v>
       </c>
       <c r="F38" s="6">
@@ -2155,7 +2201,8 @@
     </row>
     <row r="39" spans="1:8" ht="45">
       <c r="A39">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -2166,7 +2213,7 @@
       <c r="D39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>45356</v>
       </c>
       <c r="F39" s="6">
@@ -2178,7 +2225,8 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
@@ -2189,7 +2237,7 @@
       <c r="D40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <v>45356</v>
       </c>
       <c r="F40" s="6">
@@ -2201,7 +2249,8 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -2209,10 +2258,10 @@
       <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <v>45356</v>
       </c>
       <c r="F41" s="6">
@@ -2224,7 +2273,8 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -2235,7 +2285,7 @@
       <c r="D42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="6">
         <v>45356</v>
       </c>
       <c r="F42" s="6">
@@ -2247,7 +2297,8 @@
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -2258,7 +2309,7 @@
       <c r="D43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <v>45357</v>
       </c>
       <c r="F43" s="6">
@@ -2270,7 +2321,8 @@
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="A44">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
@@ -2281,7 +2333,7 @@
       <c r="D44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>45357</v>
       </c>
       <c r="F44" s="6">
@@ -2293,7 +2345,8 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -2304,7 +2357,7 @@
       <c r="D45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <v>45326</v>
       </c>
       <c r="F45" s="6">
@@ -2316,7 +2369,8 @@
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>83</v>
@@ -2327,7 +2381,7 @@
       <c r="D46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <v>45368</v>
       </c>
       <c r="F46" s="6">
@@ -2339,7 +2393,8 @@
     </row>
     <row r="47" spans="1:8" ht="30">
       <c r="A47">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
@@ -2350,7 +2405,7 @@
       <c r="D47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>45368</v>
       </c>
       <c r="F47" s="6">
@@ -2362,7 +2417,8 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -2373,7 +2429,7 @@
       <c r="D48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <v>45368</v>
       </c>
       <c r="F48" s="6">
@@ -2385,7 +2441,8 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -2396,7 +2453,7 @@
       <c r="D49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>45368</v>
       </c>
       <c r="F49" s="6">
@@ -2408,7 +2465,8 @@
     </row>
     <row r="50" spans="1:8" ht="30">
       <c r="A50">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>91</v>
@@ -2419,7 +2477,7 @@
       <c r="D50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="6">
         <v>45368</v>
       </c>
       <c r="F50" s="6">
@@ -2431,7 +2489,8 @@
     </row>
     <row r="51" spans="1:8" ht="30">
       <c r="A51">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>92</v>
@@ -2442,7 +2501,7 @@
       <c r="D51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="6">
         <v>45368</v>
       </c>
       <c r="F51" s="6">
@@ -2454,18 +2513,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>45369</v>
       </c>
       <c r="F52" s="6">
@@ -2477,7 +2537,8 @@
     </row>
     <row r="53" spans="1:8" ht="60">
       <c r="A53">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>123</v>
@@ -2488,7 +2549,7 @@
       <c r="D53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>45369</v>
       </c>
       <c r="F53" s="6">
@@ -2500,7 +2561,8 @@
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
@@ -2511,7 +2573,7 @@
       <c r="D54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="6">
         <v>45369</v>
       </c>
       <c r="F54" s="6">
@@ -2526,7 +2588,8 @@
     </row>
     <row r="55" spans="1:8" ht="120">
       <c r="A55">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -2537,7 +2600,7 @@
       <c r="D55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="6">
         <v>45369</v>
       </c>
       <c r="F55" s="6">
@@ -2552,7 +2615,8 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>99</v>
@@ -2563,7 +2627,7 @@
       <c r="D56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="6">
         <v>45369</v>
       </c>
       <c r="F56" s="6">
@@ -2575,7 +2639,8 @@
     </row>
     <row r="57" spans="1:8" ht="45">
       <c r="A57">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -2586,7 +2651,7 @@
       <c r="D57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="6">
         <v>45369</v>
       </c>
       <c r="F57" s="6">
@@ -2601,7 +2666,8 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>102</v>
@@ -2612,7 +2678,7 @@
       <c r="D58" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="6">
         <v>45369</v>
       </c>
       <c r="F58" s="6">
@@ -2624,7 +2690,8 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>99</v>
@@ -2635,7 +2702,7 @@
       <c r="D59" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="6">
         <v>45369</v>
       </c>
       <c r="F59" s="6">
@@ -2647,7 +2714,8 @@
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>102</v>
@@ -2658,7 +2726,7 @@
       <c r="D60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="6">
         <v>45369</v>
       </c>
       <c r="F60" s="6">
@@ -2670,7 +2738,8 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>106</v>
@@ -2681,7 +2750,7 @@
       <c r="D61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="6">
         <v>45369</v>
       </c>
       <c r="F61" s="6">
@@ -2693,7 +2762,8 @@
     </row>
     <row r="62" spans="1:8" ht="60">
       <c r="A62">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>108</v>
@@ -2704,7 +2774,7 @@
       <c r="D62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="6">
         <v>45371</v>
       </c>
       <c r="F62" s="6">
@@ -2716,7 +2786,8 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
@@ -2727,7 +2798,7 @@
       <c r="D63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="6">
         <v>45371</v>
       </c>
       <c r="F63" s="6">
@@ -2739,7 +2810,8 @@
     </row>
     <row r="64" spans="1:8" ht="30">
       <c r="A64">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>113</v>
@@ -2750,7 +2822,7 @@
       <c r="D64" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="6">
         <v>45371</v>
       </c>
       <c r="F64" s="6">
@@ -2762,7 +2834,8 @@
     </row>
     <row r="65" spans="1:8" ht="45">
       <c r="A65">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>115</v>
@@ -2773,7 +2846,7 @@
       <c r="D65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="6">
         <v>45371</v>
       </c>
       <c r="F65" s="6">
@@ -2785,7 +2858,8 @@
     </row>
     <row r="66" spans="1:8" ht="90">
       <c r="A66">
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>117</v>
@@ -2796,7 +2870,7 @@
       <c r="D66" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="6">
         <v>45371</v>
       </c>
       <c r="F66" s="6">
@@ -2808,7 +2882,8 @@
     </row>
     <row r="67" spans="1:8" ht="45">
       <c r="A67">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>120</v>
@@ -2819,7 +2894,7 @@
       <c r="D67" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="6">
         <v>45376</v>
       </c>
       <c r="F67" s="6">
@@ -2831,7 +2906,8 @@
     </row>
     <row r="68" spans="1:8" ht="30">
       <c r="A68">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>122</v>
@@ -2842,7 +2918,7 @@
       <c r="D68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="6">
         <v>45376</v>
       </c>
       <c r="F68" s="6">
@@ -2854,9 +2930,10 @@
     </row>
     <row r="69" spans="1:8" ht="45">
       <c r="A69">
-        <v>72</v>
-      </c>
-      <c r="B69" s="18" t="s">
+        <f t="shared" ref="A69:A95" si="1">ROW(A66)</f>
+        <v>66</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2865,7 +2942,7 @@
       <c r="D69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="6">
         <v>45376</v>
       </c>
       <c r="F69" s="6">
@@ -2877,7 +2954,8 @@
     </row>
     <row r="70" spans="1:8" ht="45">
       <c r="A70">
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>127</v>
@@ -2885,10 +2963,10 @@
       <c r="C70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="6">
         <v>45376</v>
       </c>
       <c r="F70" s="6">
@@ -2900,7 +2978,8 @@
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>129</v>
@@ -2911,7 +2990,7 @@
       <c r="D71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="6">
         <v>45378</v>
       </c>
       <c r="F71" s="6">
@@ -2923,7 +3002,8 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>139</v>
@@ -2934,7 +3014,7 @@
       <c r="D72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="6">
         <v>45378</v>
       </c>
       <c r="F72" s="6">
@@ -2946,7 +3026,8 @@
     </row>
     <row r="73" spans="1:8" ht="105">
       <c r="A73">
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>131</v>
@@ -2957,7 +3038,7 @@
       <c r="D73" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="6">
         <v>45378</v>
       </c>
       <c r="F73" s="6">
@@ -2972,7 +3053,8 @@
     </row>
     <row r="74" spans="1:8" ht="30">
       <c r="A74">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>134</v>
@@ -2983,7 +3065,7 @@
       <c r="D74" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="6">
         <v>45378</v>
       </c>
       <c r="F74" s="6">
@@ -2993,23 +3075,24 @@
         <v>45405</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45">
       <c r="A75">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="6">
         <v>45378</v>
       </c>
       <c r="F75" s="6">
@@ -3021,7 +3104,8 @@
     </row>
     <row r="76" spans="1:8" ht="45">
       <c r="A76">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>140</v>
@@ -3032,7 +3116,7 @@
       <c r="D76" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="6">
         <v>45379</v>
       </c>
       <c r="F76" s="6">
@@ -3044,7 +3128,8 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>142</v>
@@ -3055,7 +3140,7 @@
       <c r="D77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="6">
         <v>45384</v>
       </c>
       <c r="F77" s="6">
@@ -3067,7 +3152,8 @@
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>115</v>
@@ -3078,7 +3164,7 @@
       <c r="D78" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="6">
         <v>45397</v>
       </c>
       <c r="F78" s="6">
@@ -3090,38 +3176,43 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>10</v>
+      <c r="C79" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="6">
         <v>45398</v>
       </c>
       <c r="F79" s="6">
-        <v>45398</v>
+        <v>45455</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45455</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30">
       <c r="A80">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" s="10">
+        <v>149</v>
+      </c>
+      <c r="E80" s="6">
         <v>45405</v>
       </c>
       <c r="F80" s="6">
@@ -3131,20 +3222,21 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30">
+    <row r="81" spans="1:8" ht="30">
       <c r="A81">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="10">
+        <v>149</v>
+      </c>
+      <c r="E81" s="6">
         <v>45405</v>
       </c>
       <c r="F81" s="6">
@@ -3154,20 +3246,21 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:8" ht="30">
       <c r="A82">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82" s="10">
+        <v>149</v>
+      </c>
+      <c r="E82" s="6">
         <v>45405</v>
       </c>
       <c r="F82" s="6">
@@ -3177,228 +3270,340 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:8" ht="30">
       <c r="A83">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E83" s="10">
+      <c r="E83" s="6">
         <v>45405</v>
       </c>
       <c r="F83" s="6">
         <v>45405</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="45">
+    <row r="84" spans="1:8" ht="45">
       <c r="A84">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="6">
+        <v>45356</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45455</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="6">
+        <v>45425</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45453</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" s="6">
+        <v>45425</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45453</v>
+      </c>
+      <c r="G86" s="6">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="6">
+        <v>45425</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45453</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="6">
+        <v>45425</v>
+      </c>
+      <c r="F88" s="6">
+        <v>45453</v>
+      </c>
+      <c r="G88" s="6">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="6">
+        <v>45434</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45455</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E90" s="6">
+        <v>45438</v>
+      </c>
+      <c r="F90" s="6">
+        <v>45453</v>
+      </c>
+      <c r="G90" s="6">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" s="6">
+        <v>45438</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45455</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="6">
+        <v>45438</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45455</v>
+      </c>
+      <c r="G92" s="6">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="6">
+        <v>45438</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45455</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" s="18">
+        <v>45439</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45455</v>
+      </c>
+      <c r="G94" s="7">
+        <v>45455</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E84" s="10">
-        <v>45356</v>
-      </c>
-      <c r="F84" s="6">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>88</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="10">
-        <v>45425</v>
-      </c>
-      <c r="F85" s="6">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30">
-      <c r="A86">
-        <v>89</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="10">
-        <v>45425</v>
-      </c>
-      <c r="F86" s="6">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30">
-      <c r="A87">
-        <v>90</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" s="10">
-        <v>45425</v>
-      </c>
-      <c r="F87" s="6">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>91</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="10">
-        <v>45425</v>
-      </c>
-      <c r="F88" s="6">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>92</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" s="10">
-        <v>45434</v>
-      </c>
-      <c r="F89" s="6">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30">
-      <c r="A90">
+      <c r="D95" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="6">
+        <v>45440</v>
+      </c>
+      <c r="F95" s="6">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30">
+      <c r="A96">
         <v>93</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E90" s="10">
-        <v>45438</v>
-      </c>
-      <c r="F90" s="6">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30">
-      <c r="A91">
-        <v>94</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" s="10">
-        <v>45438</v>
-      </c>
-      <c r="F91" s="6">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>95</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E92" s="10">
-        <v>45438</v>
-      </c>
-      <c r="F92" s="6">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>96</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="10">
-        <v>45438</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45438</v>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="6">
+        <v>45455</v>
+      </c>
+      <c r="F96" s="6">
+        <v>45456</v>
+      </c>
+      <c r="G96" s="6">
+        <v>45456</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
